--- a/gameon/instock.xlsx
+++ b/gameon/instock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rupak\data-science\gameon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607834ED-EF0F-4798-A9FA-656E5BC0F20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A93D790-BAFB-4CCE-9C6B-61F8FA1976A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -385,7 +385,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -415,7 +415,7 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
